--- a/ava/ava_test.xlsx
+++ b/ava/ava_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\scada\ava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0951BC32-5ACD-4EA4-BEEA-471A69BBC13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3128CD-F95B-4A81-B210-3BFD071260E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="245">
   <si>
     <t>#</t>
   </si>
@@ -750,6 +750,18 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Initializing.</t>
+  </si>
+  <si>
+    <t>Online.</t>
+  </si>
+  <si>
+    <t>Connecting.</t>
+  </si>
+  <si>
+    <t>Telemetry Failure.</t>
   </si>
 </sst>
 </file>
@@ -797,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,7 +1040,7 @@
   <dimension ref="A1:AA995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="C12" sqref="C12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11253,7 +11265,7 @@
   <dimension ref="A1:B995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="A11" sqref="A11:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14904,16 +14916,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F909B32-34FB-443C-A88B-AEDA6A90C7CE}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>TEXT(A2-A3,"h:mm:ss")</f>
+        <v>0:02:39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>TEXT(A3-A4,"h:mm:ss")</f>
+        <v>0:00:34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>TEXT(A4-A5,"h:mm:ss")</f>
+        <v>0:04:01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>TEXT(A5-A6,"h:mm:ss")</f>
+        <v>0:05:38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>TEXT(A6-A7,"h:mm:ss")</f>
+        <v>0:00:34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77419856-CD7A-4279-8154-4F76A203B384}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -14956,46 +15113,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f>A2-A3</f>
-        <v>1.8399421314825304E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f>A3-A4</f>
-        <v>3.8839119952172041E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>A4-A5</f>
-        <v>2.7904166709049605E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>SUM(A10:A12)</f>
-        <v>5.0187500019092113E-3</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77419856-CD7A-4279-8154-4F76A203B384}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ava/ava_test.xlsx
+++ b/ava/ava_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\scada\ava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3128CD-F95B-4A81-B210-3BFD071260E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C382C-CC59-4537-819C-0E9493636237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,6 +782,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1040,7 +1041,7 @@
   <dimension ref="A1:AA995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15061,19 +15062,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77419856-CD7A-4279-8154-4F76A203B384}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -15081,7 +15083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -15089,7 +15091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -15097,7 +15099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -15105,7 +15107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -15113,7 +15115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -15121,15 +15123,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D7">
+        <f>A6-A7</f>
+        <v>3.8826389209134504E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>